--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="8" activeTab="15"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Nerul 404" sheetId="16" r:id="rId14"/>
     <sheet name="Putz 405" sheetId="17" r:id="rId15"/>
     <sheet name="Namrata 406" sheetId="18" r:id="rId16"/>
+    <sheet name="Putz 407" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="149">
   <si>
     <t>client: PUTZMEISTER</t>
   </si>
@@ -479,6 +480,21 @@
   </si>
   <si>
     <t>Red Silicon Pipe ID 170 X 300 Long X 3mm Thk</t>
+  </si>
+  <si>
+    <t>DC  no:22-23QPutz407</t>
+  </si>
+  <si>
+    <t>date: 29/03/2023</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>615863</t>
+  </si>
+  <si>
+    <t>Control Room Spike Board</t>
   </si>
 </sst>
 </file>
@@ -740,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -852,6 +868,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -891,8 +910,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,7 +1202,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1497,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1484,33 +1509,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1524,11 +1549,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1604,33 +1629,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1644,11 +1669,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1708,33 +1733,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1748,11 +1773,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1832,33 +1857,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1872,11 +1897,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1948,33 +1973,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1988,11 +2013,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2043,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,33 +2082,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -2097,11 +2122,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2129,7 +2154,7 @@
       <c r="C8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2163,6 +2188,116 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2306,12 +2441,12 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2359,36 +2494,36 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="11">
         <f>SUM(E34)</f>
         <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="11">
         <f>E35*18%</f>
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="11">
         <f>SUM(E35:E36)</f>
         <v>944</v>

--- a/DC/DC.xlsx
+++ b/DC/DC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Putz 405" sheetId="17" r:id="rId15"/>
     <sheet name="Namrata 406" sheetId="18" r:id="rId16"/>
     <sheet name="Putz 407" sheetId="19" r:id="rId17"/>
+    <sheet name="Shruti Infortech 408" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="156">
   <si>
     <t>client: PUTZMEISTER</t>
   </si>
@@ -495,6 +496,27 @@
   </si>
   <si>
     <t>Control Room Spike Board</t>
+  </si>
+  <si>
+    <t>date: 31/03/2023</t>
+  </si>
+  <si>
+    <t>client: Shruti Infotech</t>
+  </si>
+  <si>
+    <t>Shipping Address: Porvorim Goa</t>
+  </si>
+  <si>
+    <t>Tvse Msp 270 Printer</t>
+  </si>
+  <si>
+    <t>DC  no:22-23QNamrata408</t>
+  </si>
+  <si>
+    <t>Billing Address:  Porvorim Goa</t>
+  </si>
+  <si>
+    <t>Ref: Delivery of material which is to be returned</t>
   </si>
 </sst>
 </file>
@@ -871,6 +893,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -909,15 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,33 +1531,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1549,11 +1571,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1629,33 +1651,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1669,11 +1691,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1733,33 +1755,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1773,11 +1795,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1857,33 +1879,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -1897,11 +1919,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -1973,33 +1995,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -2013,11 +2035,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2069,7 +2091,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,33 +2104,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -2122,11 +2144,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2206,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
@@ -2220,33 +2242,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="4"/>
       <c r="E1" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
@@ -2260,11 +2282,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
@@ -2278,7 +2300,7 @@
       <c r="C7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="46" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2286,18 +2308,121 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="45">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2441,12 +2566,12 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2494,36 +2619,36 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="11">
         <f>SUM(E34)</f>
         <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="11">
         <f>E35*18%</f>
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="11">
         <f>SUM(E35:E36)</f>
         <v>944</v>
